--- a/inputcons/categoriel.xlsx
+++ b/inputcons/categoriel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Mois</t>
   </si>
@@ -34,6 +34,15 @@
     <t>Avril</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
     <t>Juillet</t>
   </si>
   <si>
@@ -41,6 +50,12 @@
   </si>
   <si>
     <t>Mai</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Novembre</t>
   </si>
   <si>
     <t>Octobre</t>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +456,10 @@
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>32683000</v>
+        <v>32790500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,10 +470,10 @@
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>5506500</v>
+        <v>5789500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,10 +484,10 @@
         <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>4597000</v>
+        <v>4801500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,10 +498,10 @@
         <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>3567500</v>
+        <v>3203000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,10 +512,10 @@
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>1243500</v>
+        <v>1158500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,7 +526,7 @@
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>296000</v>
@@ -519,212 +534,464 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>22794750</v>
+        <v>15607500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>4694750</v>
+        <v>3365000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>3912500</v>
+        <v>4155500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>19669500</v>
+        <v>25897000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>4361750</v>
+        <v>6073000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>2703000</v>
+        <v>5201500</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>10442500</v>
+        <v>20741000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>3720250</v>
+        <v>3913500</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>1978500</v>
+        <v>4764500</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>28209250</v>
+        <v>27322000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>5965250</v>
+        <v>5460500</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>5628500</v>
+        <v>5270500</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>37276000</v>
+        <v>21952500</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>6023250</v>
+        <v>4868000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2023</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>3912500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
-        <v>2023</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>18057500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>4562750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>2703000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>9957500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>3669250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1978500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>20181000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>4034250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>4822500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>5923000</v>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>26009500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>5663000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>5284500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>27500500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>6174000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>5628500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>33778000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>5641750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>5217000</v>
       </c>
     </row>
   </sheetData>
